--- a/documents/ТЗ.xlsx
+++ b/documents/ТЗ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>Интро</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>На манер старых игр</t>
+  </si>
+  <si>
+    <t>. . .</t>
+  </si>
+  <si>
+    <t>на момент 05.01.2024</t>
   </si>
 </sst>
 </file>
@@ -606,7 +612,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C16" sqref="C16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -750,13 +756,13 @@
       <c r="B5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -797,13 +803,13 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="51.75" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -811,6 +817,12 @@
       <c r="B11" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="C11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="7" t="s">
@@ -819,6 +831,12 @@
       <c r="B12" t="s">
         <v>45</v>
       </c>
+      <c r="C12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="8" t="s">
@@ -827,12 +845,24 @@
       <c r="B13" t="s">
         <v>43</v>
       </c>
+      <c r="C13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
         <v>44</v>
       </c>
     </row>

--- a/documents/ТЗ.xlsx
+++ b/documents/ТЗ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>Интро</t>
   </si>
@@ -169,6 +169,21 @@
   </si>
   <si>
     <t>на момент 05.01.2024</t>
+  </si>
+  <si>
+    <t>Код</t>
+  </si>
+  <si>
+    <t>Очистка кода</t>
+  </si>
+  <si>
+    <t>обозначение типов</t>
+  </si>
+  <si>
+    <t>добавление комментариев</t>
+  </si>
+  <si>
+    <t>на момент 11.01.2024</t>
   </si>
 </sst>
 </file>
@@ -609,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -759,7 +774,7 @@
       <c r="C5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="10" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -789,7 +804,7 @@
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -813,56 +828,82 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="B11" s="9" t="s">
+    <row r="10" spans="1:15">
+      <c r="A10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
         <v>44</v>
       </c>
     </row>

--- a/documents/ТЗ.xlsx
+++ b/documents/ТЗ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Интро</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Для каждого меню будет своё звуковое сопровождение</t>
   </si>
   <si>
-    <t>Цель</t>
-  </si>
-  <si>
     <t>Остров</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>Зелёный</t>
   </si>
   <si>
-    <t>на момент 22.12.2023</t>
-  </si>
-  <si>
     <t>Работа выполнена на половину</t>
   </si>
   <si>
@@ -165,12 +159,6 @@
     <t>На манер старых игр</t>
   </si>
   <si>
-    <t>. . .</t>
-  </si>
-  <si>
-    <t>на момент 05.01.2024</t>
-  </si>
-  <si>
     <t>Код</t>
   </si>
   <si>
@@ -183,7 +171,16 @@
     <t>добавление комментариев</t>
   </si>
   <si>
-    <t>на момент 11.01.2024</t>
+    <t>коллизия</t>
+  </si>
+  <si>
+    <t>текстуры врагов</t>
+  </si>
+  <si>
+    <t>ИИ для врагов</t>
+  </si>
+  <si>
+    <t>на момент 14.01.2024</t>
   </si>
 </sst>
 </file>
@@ -624,21 +621,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="40.42578125" customWidth="1"/>
-    <col min="4" max="4" width="48.42578125" customWidth="1"/>
-    <col min="5" max="5" width="43.5703125" customWidth="1"/>
-    <col min="6" max="6" width="39.140625" customWidth="1"/>
-    <col min="7" max="7" width="34.140625" customWidth="1"/>
+    <col min="1" max="7" width="35.7109375" customWidth="1"/>
     <col min="8" max="8" width="28.140625" customWidth="1"/>
     <col min="9" max="9" width="32.85546875" customWidth="1"/>
     <col min="10" max="10" width="28.85546875" customWidth="1"/>
@@ -649,27 +640,27 @@
     <col min="15" max="15" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
+    <row r="1" spans="1:15" ht="75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -680,7 +671,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="30.75" thickTop="1">
+    <row r="2" spans="1:15" ht="75" customHeight="1" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -688,13 +679,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -707,7 +698,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="30">
+    <row r="3" spans="1:15" ht="75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -721,7 +712,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>8</v>
@@ -736,7 +727,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="75">
+    <row r="4" spans="1:15" ht="75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -750,10 +741,10 @@
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -764,24 +755,24 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="60">
+    <row r="5" spans="1:15" ht="75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="45">
+    </row>
+    <row r="6" spans="1:15" ht="75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -789,124 +780,99 @@
         <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="75" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="45">
-      <c r="A7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="8" spans="1:15" ht="75" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="75" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="60">
-      <c r="A8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="51.75" customHeight="1">
-      <c r="A9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="9" t="s">
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-    </row>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="31" ht="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/documents/ТЗ.xlsx
+++ b/documents/ТЗ.xlsx
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -818,22 +818,22 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="75" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>53</v>
       </c>
     </row>

--- a/documents/ТЗ.xlsx
+++ b/documents/ТЗ.xlsx
@@ -126,9 +126,6 @@
     <t>Враги - на каждой локации будет по 2 вида монстров с своими особенностями. Они становятся сильнее, когда ваш уровень повышается.</t>
   </si>
   <si>
-    <t>Будут звуковые эффекты, при нажатии на клавиши, в интро, во время битвы, при передвижении</t>
-  </si>
-  <si>
     <t>В мире будет лодка, для восстановления которой нужно собрать материалы с каждой локации</t>
   </si>
   <si>
@@ -180,7 +177,10 @@
     <t>ИИ для врагов</t>
   </si>
   <si>
-    <t>на момент 14.01.2024</t>
+    <t>Будут звуковые эффекты, при нажатии на клавиши, во время битвы, при передвижении</t>
+  </si>
+  <si>
+    <t>на момент 17.01.2024</t>
   </si>
 </sst>
 </file>
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -773,14 +773,14 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="75" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>36</v>
+      <c r="C6" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="75" customHeight="1">
@@ -800,41 +800,41 @@
         <v>20</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="75" customHeight="1">
       <c r="A8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="75" customHeight="1">
       <c r="A9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="9"/>
     </row>
